--- a/テストver3.xlsx
+++ b/テストver3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721698C4-1EA5-40C7-A2DB-7E816C3DD178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38543E-15B2-4F6D-9D42-3573B71E7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8F32487F-2736-4409-9864-19BD440AF380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="205">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -3053,6 +3053,70 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面のパスワードの入力値を●で表示(パスワードの文字数分)</t>
+    <rPh sb="31" eb="35">
+      <t>モジスウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの●はパスワードの文字数分</t>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄の●はパスワードの文字数分</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄はパスワードの文字数分●表示</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>モジスウブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード欄にパスワードの文字数分●表示</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>モジスウブン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>クロマルヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3461,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F7CE0-10F3-48E2-A9AD-9A2B10BE2034}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98:I99"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3834,6 +3898,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44837</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="18" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>174</v>
@@ -4751,26 +4842,26 @@
         <v>25</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="6">
-        <v>44823</v>
+        <v>44837</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -4778,13 +4869,13 @@
         <v>26</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
@@ -4805,13 +4896,13 @@
         <v>27</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>177</v>
+        <v>74</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
@@ -4827,18 +4918,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>28</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>9</v>
@@ -4854,18 +4945,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>29</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
@@ -4886,13 +4977,13 @@
         <v>30</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>9</v>
@@ -4908,18 +4999,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>179</v>
+        <v>103</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -4935,18 +5026,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>32</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
@@ -4962,18 +5053,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>177</v>
+        <v>82</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
@@ -4994,13 +5085,13 @@
         <v>34</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
@@ -5021,13 +5112,13 @@
         <v>35</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
@@ -5043,18 +5134,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>36</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
@@ -5070,18 +5161,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>37</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
@@ -5102,13 +5193,13 @@
         <v>38</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>9</v>
@@ -5124,18 +5215,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>39</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
@@ -5156,13 +5247,13 @@
         <v>40</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
@@ -5178,79 +5269,79 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="B79" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>41</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="6">
+        <v>44823</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="B80" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
-        <v>1</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="6">
-        <v>44823</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
@@ -5268,16 +5359,16 @@
     </row>
     <row r="83" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
@@ -5295,13 +5386,13 @@
     </row>
     <row r="84" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>110</v>
@@ -5322,16 +5413,16 @@
     </row>
     <row r="85" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>9</v>
@@ -5349,16 +5440,16 @@
     </row>
     <row r="86" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
@@ -5376,16 +5467,16 @@
     </row>
     <row r="87" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
@@ -5403,16 +5494,16 @@
     </row>
     <row r="88" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
@@ -5430,16 +5521,16 @@
     </row>
     <row r="89" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>9</v>
@@ -5457,16 +5548,16 @@
     </row>
     <row r="90" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
@@ -5484,16 +5575,16 @@
     </row>
     <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
@@ -5511,16 +5602,16 @@
     </row>
     <row r="92" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
@@ -5536,79 +5627,79 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="B96" s="1" t="s">
+    <row r="93" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="6">
+        <v>44823</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="6">
-        <v>44823</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
-        <v>2</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>9</v>
@@ -5621,6 +5712,33 @@
         <v>10</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>2</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="6">
+        <v>44823</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5634,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C4344-AF04-4D6C-B054-CF4A9AF23867}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:I55"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6377,6 +6495,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4">
+        <v>44837</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="41" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>196</v>

--- a/テストver3.xlsx
+++ b/テストver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38543E-15B2-4F6D-9D42-3573B71E7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7253C69-9050-4619-84F0-92DD889749C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8F32487F-2736-4409-9864-19BD440AF380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="212">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -3117,6 +3117,142 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所(番地)欄、住所(市区町村)欄は文頭、文末、連続して
+ハイフンは使えない</t>
+    <rPh sb="18" eb="20">
+      <t>ブントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンマツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文頭、文末、連続してハイフンを入力し更新ボタンを押す</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面に遷移しない</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化された文字数が●表示される
+解決法：ハッシュ化をもとの文字列にすること
+は不可能なのでなし</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>クロマルヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カイケツホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文頭、文末、連続してハイフンを入力しても
+アカウント更新確認画面に遷移してしまう
+解決法：</t>
+    <rPh sb="26" eb="30">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カイケツホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文頭、文末、連続してハイフンを入力しても
+アカウント更新確認画面に遷移してしまう
+解決策：</t>
+    <rPh sb="26" eb="30">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カイケツサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の入力値の一桁目が0の場合0を飛ばした
+数列がDBに保存されてしまう
+解決策：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒトケタメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウレツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カイケツサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3186,7 +3322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3210,6 +3346,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3527,16 +3669,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F7CE0-10F3-48E2-A9AD-9A2B10BE2034}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView topLeftCell="C86" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="59.75" customWidth="1"/>
+    <col min="7" max="7" width="42.625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3780,9 +3923,9 @@
         <v>9</v>
       </c>
       <c r="F10" s="4">
-        <v>44823</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>44838</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +3952,7 @@
       <c r="F11" s="4">
         <v>44823</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3834,9 +3977,9 @@
         <v>9</v>
       </c>
       <c r="F12" s="4">
-        <v>44823</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>44838</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3861,9 +4004,9 @@
         <v>9</v>
       </c>
       <c r="F13" s="4">
-        <v>44823</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>44838</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +4041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3917,7 +4060,9 @@
       <c r="F15" s="4">
         <v>44837</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4837,7 +4982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>25</v>
       </c>
@@ -4856,7 +5001,9 @@
       <c r="F60" s="6">
         <v>44837</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="H60" s="2" t="s">
         <v>10</v>
       </c>
@@ -5296,6 +5443,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="77" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>42</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="6">
+        <v>44838</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="80" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
         <v>189</v>
@@ -5688,7 +5864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -5707,12 +5883,14 @@
       <c r="F99" s="6">
         <v>44823</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="H99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -5750,18 +5928,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C4344-AF04-4D6C-B054-CF4A9AF23867}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="63.25" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="7" max="7" width="45.875" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6495,7 +6674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>16</v>
       </c>
@@ -6503,10 +6682,10 @@
         <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -6514,11 +6693,42 @@
       <c r="F38" s="4">
         <v>44837</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="H38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6">
+        <v>44838</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6556,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -6575,12 +6785,14 @@
       <c r="F43" s="4">
         <v>44823</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -6691,52 +6903,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
+    <row r="48" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6">
+        <v>44824</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>8</v>
+      <c r="B52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44823</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -6754,16 +7022,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
@@ -6776,33 +7044,6 @@
         <v>10</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>3</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="4">
-        <v>44823</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/テストver3.xlsx
+++ b/テストver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7253C69-9050-4619-84F0-92DD889749C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108AB93-4E4C-41C2-8D64-D4586B7C8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8F32487F-2736-4409-9864-19BD440AF380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="214">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -3192,7 +3192,7 @@
   <si>
     <t>文頭、文末、連続してハイフンを入力しても
 アカウント更新確認画面に遷移してしまう
-解決法：</t>
+解決策：regist.phpファイルの104行目の正規表現を変更する</t>
     <rPh sb="26" eb="30">
       <t>コウシンカクニン</t>
     </rPh>
@@ -3203,14 +3203,24 @@
       <t>センイ</t>
     </rPh>
     <rPh sb="41" eb="44">
-      <t>カイケツホウ</t>
+      <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>文頭、文末、連続してハイフンを入力しても
 アカウント更新確認画面に遷移してしまう
-解決策：</t>
+解決策：regist.phpファイルの104行目の正規表現を変更
+する</t>
     <rPh sb="26" eb="30">
       <t>コウシンカクニン</t>
     </rPh>
@@ -3223,12 +3233,21 @@
     <rPh sb="41" eb="44">
       <t>カイケツサク</t>
     </rPh>
+    <rPh sb="63" eb="65">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>郵便番号の入力値の一桁目が0の場合0を飛ばした
 数列がDBに保存されてしまう
-解決策：</t>
+解決策：DBのpost_codeのデータ型をvarchar型にする</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
     </rPh>
@@ -3252,6 +3271,69 @@
     </rPh>
     <rPh sb="39" eb="42">
       <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文頭、文末、連続してハイフンを入力しても
+アカウント更新確認画面に遷移してしまう
+解決法：regist.phpファイルの104行目の正規表現を変更する</t>
+    <rPh sb="26" eb="30">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カイケツホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号の入力値の一桁目が0の場合0を飛ばした
+数列がDBに保存されてしまう
+解決策：DBのpost_codeのデータ型をvarchar型に変更する</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒトケタメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウレツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3322,7 +3404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3349,9 +3431,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3669,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F7CE0-10F3-48E2-A9AD-9A2B10BE2034}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="C86" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
@@ -4041,7 +4120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5443,7 +5522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>42</v>
       </c>
@@ -5463,7 +5542,7 @@
         <v>44838</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>10</v>
@@ -5864,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -5884,7 +5963,7 @@
         <v>44823</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>10</v>
@@ -5930,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C4344-AF04-4D6C-B054-CF4A9AF23867}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6703,7 +6782,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>17</v>
       </c>
@@ -6766,7 +6845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -6903,7 +6982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -6923,12 +7002,12 @@
         <v>44824</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="3" t="s">
         <v>199</v>
       </c>
     </row>
